--- a/inst/demo_adapt1.xlsx
+++ b/inst/demo_adapt1.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t>type</t>
   </si>
@@ -662,39 +662,6 @@
   </si>
   <si>
     <t>${eligible}</t>
-  </si>
-  <si>
-    <t>more_hh_members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108. Are there any other usual members of your household or persons who slept in the house last night?</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>more_hh_members_add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are other members of the household.  Move forward and select "Add Group"</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${more_hh_members} = 'yes'</t>
-  </si>
-  <si>
-    <t>more_hh_members_donotadd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are no other members of the household.  Move forward and select "Do Not Add"</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${more_hh_members} = 'no'</t>
   </si>
   <si>
     <t>end_repeat</t>
@@ -1907,6 +1874,9 @@
     <t>v</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
     <t>RQ-etr6-v1</t>
   </si>
   <si>
@@ -1917,9 +1887,6 @@
   </si>
   <si>
     <t>vT6CzZdSmJJvyeXQmTRFnu</t>
-  </si>
-  <si>
-    <t>form_id</t>
   </si>
 </sst>
 </file>
@@ -1929,11 +1896,14 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10.000000"/>
     </font>
     <font>
       <name val="Arial"/>
+      <color theme="11"/>
       <sz val="10.000000"/>
+      <u/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1943,9 +1913,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color theme="11"/>
       <sz val="10.000000"/>
-      <u/>
     </font>
   </fonts>
   <fills count="2">
@@ -1966,22 +1934,27 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2314,71 +2287,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2386,7 +2299,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2409,7 +2322,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2485,7 +2398,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2507,11 +2420,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2526,16 +2437,14 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -2554,7 +2463,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -2579,12 +2488,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.00390625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3781,33 +3696,15 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>28</v>
@@ -3816,21 +3713,18 @@
         <v>41</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>28</v>
@@ -3839,54 +3733,75 @@
         <v>41</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>39</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>230</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3935,7 +3850,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>240</v>
@@ -3943,6 +3858,9 @@
       <c r="C67" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="K67" s="1" t="s">
         <v>28</v>
       </c>
@@ -3950,18 +3868,30 @@
         <v>29</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>243</v>
+        <v>126</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>28</v>
@@ -3970,21 +3900,24 @@
         <v>41</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>28</v>
@@ -3993,21 +3926,21 @@
         <v>29</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>253</v>
@@ -4019,39 +3952,33 @@
         <v>29</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>126</v>
@@ -4059,111 +3986,99 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G72" s="1" t="s">
         <v>264</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="K74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>28</v>
@@ -4172,92 +4087,27 @@
         <v>41</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>296</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -4268,16 +4118,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4297,321 +4150,321 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -4619,1466 +4472,1467 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -6089,74 +5943,78 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
